--- a/biology/Botanique/Rhapidophyllum_hystrix/Rhapidophyllum_hystrix.xlsx
+++ b/biology/Botanique/Rhapidophyllum_hystrix/Rhapidophyllum_hystrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Palmier porc-épic, palmier aiguille
-Rhapidophyllum hystrix, le palmier aiguille ou palmier porc-épic[1] est une espèce de palmiers (famille des Arécacées). C'est la seule espèce du genre Rhapidophyllum.
+Rhapidophyllum hystrix, le palmier aiguille ou palmier porc-épic est une espèce de palmiers (famille des Arécacées). C'est la seule espèce du genre Rhapidophyllum.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le stipe est solitaire ; très court, il ne dépasse pas 1,5 m. Mais avec la couronne, le palmier peut atteindre une hauteur allant de 2 à 3 mètres. Les feuilles sont palmées et possèdent un pétiole long qui se termine par une douzaine de folioles (8-16). À l'âge adulte, chaque feuille fait plus de 2 mètres de long, avec des folioles de 60 à 80 cm. C'est un palmier habituellement dioïque, où les fleurs mâles et femelles sont sur des plantes séparées. Les fleurs naissent dans une inflorescence dense et courte, à la cime du palmier. Les fruits sont une drupe de couleur marron.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre est répandu dans les sous-bois, où il affectionne les sols humides et inondés.
 On le retrouve dans les États de Géorgie, Caroline du Nord, Mississippi, et Floride. C’est un genre relativement rare.
@@ -576,12 +592,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Coryphoideae
 Tribu des Trachycarpeae
 Sous-tribu des Rhapidinae 
-Ce genre  partage sa sous-tribu  avec cinq autres genres :  Chamaerops, Guihaia,  Maxburretia,  Rhapis,   Trachycarpus [2].
+Ce genre  partage sa sous-tribu  avec cinq autres genres :  Chamaerops, Guihaia,  Maxburretia,  Rhapis,   Trachycarpus .
 Son nom vient du grec rhapidos qui signifie baguette et de phyllon qui signifie feuille.
 </t>
         </is>
